--- a/data/case1/15/Q_device_14.xlsx
+++ b/data/case1/15/Q_device_14.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.035214529104343216</v>
+        <v>-0.016822428083365711</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.035214529172534689</v>
+        <v>0.016822428054804453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.018239041591267033</v>
+        <v>0.02730670582687315</v>
       </c>
       <c r="B2" s="0">
-        <v>0.018239041518005338</v>
+        <v>-0.027306705851463803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.016385430391943033</v>
+        <v>-0.062737003971333472</v>
       </c>
       <c r="B3" s="0">
-        <v>0.016385430288165605</v>
+        <v>0.062737003952706608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.056347993316070877</v>
+        <v>-0.012674708612671535</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.056347993477587212</v>
+        <v>0.012674708592601287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.01947340954533399</v>
+        <v>0.072106449226061797</v>
       </c>
       <c r="B5" s="0">
-        <v>0.019473409365568302</v>
+        <v>-0.072106449248151475</v>
       </c>
     </row>
   </sheetData>
